--- a/Doc/ExcelConfig/Datas/dota/BuffEffectConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/BuffEffectConfig.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="1131">
   <si>
     <t>##</t>
   </si>
@@ -314,10 +314,10 @@
     <t>modifier_sect_atkspeed_huskar_berserkers_blood_c</t>
   </si>
   <si>
-    <t>modifier_sect_atkspeed_ability11_invoker_alacrity_b</t>
-  </si>
-  <si>
-    <t>modifier_sect_atkspeed_ability11_invoker_alacrity_c</t>
+    <t>modifier_sect_atkspeed_invoker_alacrity_b</t>
+  </si>
+  <si>
+    <t>modifier_sect_atkspeed_invoker_alacrity_c</t>
   </si>
   <si>
     <t>modifier_sect_atkspeed_legion_commander_press_the_attack_b</t>
@@ -563,10 +563,10 @@
     <t>modifier_sect_cabala_crystal_maiden_brilliance_aura_c</t>
   </si>
   <si>
-    <t>modifier_sect_cabala_ability10_invoker_emp_b</t>
-  </si>
-  <si>
-    <t>modifier_sect_cabala_ability10_invoker_emp_c</t>
+    <t>modifier_sect_cabala_invoker_emp_b</t>
+  </si>
+  <si>
+    <t>modifier_sect_cabala_invoker_emp_c</t>
   </si>
   <si>
     <t>modifier_sect_cabala_keeper_of_the_light_chakra_magic_b</t>
@@ -3471,6 +3471,18 @@
       <t xml:space="preserve"> { 
 }</t>
     </r>
+  </si>
+  <si>
+    <t>modifier_sect_atkspeed_ability11_invoker_alacrity_b</t>
+  </si>
+  <si>
+    <t>modifier_sect_atkspeed_ability11_invoker_alacrity_c</t>
+  </si>
+  <si>
+    <t>modifier_sect_cabala_ability10_invoker_emp_b</t>
+  </si>
+  <si>
+    <t>modifier_sect_cabala_ability10_invoker_emp_c</t>
   </si>
 </sst>
 </file>
@@ -4521,11 +4533,11 @@
   <dimension ref="A1:L1019"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D595" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E614" sqref="E614"/>
+      <selection pane="bottomRight" activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -13941,7 +13953,7 @@
     </row>
     <row r="73" spans="6:7">
       <c r="F73" s="5" t="s">
-        <v>98</v>
+        <v>1127</v>
       </c>
       <c r="G73" t="str">
         <f>$B$5&amp;F73&amp;$C$5</f>
@@ -13952,7 +13964,7 @@
     </row>
     <row r="74" spans="6:7">
       <c r="F74" s="5" t="s">
-        <v>99</v>
+        <v>1128</v>
       </c>
       <c r="G74" t="str">
         <f>$B$5&amp;F74&amp;$C$5</f>
@@ -14744,7 +14756,7 @@
     </row>
     <row r="146" spans="6:7">
       <c r="F146" s="5" t="s">
-        <v>181</v>
+        <v>1129</v>
       </c>
       <c r="G146" t="str">
         <f>$B$5&amp;F146&amp;$C$5</f>
@@ -14755,7 +14767,7 @@
     </row>
     <row r="147" spans="6:7">
       <c r="F147" s="5" t="s">
-        <v>182</v>
+        <v>1130</v>
       </c>
       <c r="G147" t="str">
         <f>$B$5&amp;F147&amp;$C$5</f>
